--- a/results/training_metrics_regularized.xlsx
+++ b/results/training_metrics_regularized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9174929647847476</v>
+        <v>0.9334660564871232</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6122828722000122</v>
+        <v>6.080389022827148</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7059898721646648</v>
+        <v>6.73623922529464</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6122828722000122</v>
+        <v>6.080389022827148</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,101 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9064832145347921</v>
+        <v>0.9097319368765692</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6102929711341858</v>
+        <v>6.098905086517334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7010136306709076</v>
+        <v>6.64501003820769</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6102929711341858</v>
+        <v>6.098905086517334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9048111958044588</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.108983993530273</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.625022171821506</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.108983993530273</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9013950093163139</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.109508991241455</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.609887238721559</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.109508991241455</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8988497905485038</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.119451999664307</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.598473477806126</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.119451999664307</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8971853885462555</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.11155366897583</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.591057170571418</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.11155366897583</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8958477337786327</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.108453273773193</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.585326235144985</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.108453273773193</v>
       </c>
     </row>
   </sheetData>
